--- a/output/fit_clients/fit_round_353.xlsx
+++ b/output/fit_clients/fit_round_353.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2354797976.150289</v>
+        <v>1851637562.168116</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08088606692339248</v>
+        <v>0.09686068890065558</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03168601361453979</v>
+        <v>0.04295783932184869</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1177399031.40501</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2345792921.170617</v>
+        <v>2048421675.802031</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1196385664374426</v>
+        <v>0.1314813485317472</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03340852957053679</v>
+        <v>0.03571123679636896</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1172896554.202173</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5070393147.949483</v>
+        <v>4182738079.664317</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1518993244177628</v>
+        <v>0.1481630216144227</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0315423078038775</v>
+        <v>0.02679520618301701</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>127</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2535196663.993283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2974059396.056163</v>
+        <v>3623375759.401629</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07233000776297639</v>
+        <v>0.1076722330069527</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03762090700221378</v>
+        <v>0.03364944647182373</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>131</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1487029769.577042</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2200665995.544418</v>
+        <v>2640543597.520566</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09803055819099889</v>
+        <v>0.1020188517157166</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05400144908053441</v>
+        <v>0.03493383073862136</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>67</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1100333005.660274</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2018707380.409109</v>
+        <v>2602478210.02785</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08490143540220006</v>
+        <v>0.07230627359814983</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0338070890245023</v>
+        <v>0.0353377188520097</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>110</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1009353749.620945</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2990518214.041934</v>
+        <v>3096604859.280275</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1403291425740191</v>
+        <v>0.2147804580275208</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02428437230567254</v>
+        <v>0.02726622547167771</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>112</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1495259163.572787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1658841941.150239</v>
+        <v>1680244319.745471</v>
       </c>
       <c r="F9" t="n">
-        <v>0.187727175402231</v>
+        <v>0.1888472965420817</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02736321555255838</v>
+        <v>0.0260441150746591</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>829421044.5336137</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5071087671.744164</v>
+        <v>4349782057.936032</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2084810515463262</v>
+        <v>0.193882437826901</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0366216971717942</v>
+        <v>0.04202303642763074</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>149</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2535543940.67265</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3268499457.099321</v>
+        <v>4170114727.06917</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1824696543309924</v>
+        <v>0.1525502257557423</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03959627079355334</v>
+        <v>0.03439625983290919</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>146</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1634249690.196514</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2714332522.951468</v>
+        <v>2833368014.105055</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1456702924412689</v>
+        <v>0.1215470253893022</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03976106223247379</v>
+        <v>0.04432762502124858</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>121</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1357166253.322457</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3497455647.04621</v>
+        <v>4334593079.016148</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0770831940397621</v>
+        <v>0.07247542357382455</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02605222699518464</v>
+        <v>0.02786129913470607</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>118</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1748727903.986741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3079332684.226026</v>
+        <v>3506267082.288498</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1722992837051382</v>
+        <v>0.1598779511811782</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03721285402892352</v>
+        <v>0.04367868921487671</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>115</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1539666370.816471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1302283588.922394</v>
+        <v>1466897160.839591</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08619339021747126</v>
+        <v>0.07665348788429271</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0486125846718449</v>
+        <v>0.03549611925142612</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>651141835.1445963</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1906163117.826308</v>
+        <v>2544359150.678915</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08293026343417932</v>
+        <v>0.09692071386289229</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04423579243083766</v>
+        <v>0.04825931034315335</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>71</v>
-      </c>
-      <c r="J16" t="n">
-        <v>953081642.788353</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3616360128.446954</v>
+        <v>4766650826.506126</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1544359296968401</v>
+        <v>0.1328376790916692</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03225528746593588</v>
+        <v>0.04721440123625086</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>103</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1808180117.814278</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3611462366.469927</v>
+        <v>3788965730.993284</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1293933305863592</v>
+        <v>0.1667000971691578</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02447553033356108</v>
+        <v>0.02669567423047939</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>116</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1805731169.282798</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>972452747.3335431</v>
+        <v>1333756979.708139</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1690994822253553</v>
+        <v>0.1750629992332308</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02690183042984777</v>
+        <v>0.02195418641228216</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>486226396.2003764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2224767158.912959</v>
+        <v>2150996215.245367</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1616170611296078</v>
+        <v>0.1143131569402824</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02888156847950381</v>
+        <v>0.02291312294676747</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>46</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1112383581.880398</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2186847590.721117</v>
+        <v>1862725129.269168</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09248673202373389</v>
+        <v>0.1012624310155355</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04342666673063309</v>
+        <v>0.03571032236632919</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>29</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1093423813.460365</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2758860125.495304</v>
+        <v>2520613959.241008</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1019650300196266</v>
+        <v>0.08811376016887307</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05319238595775475</v>
+        <v>0.03678217008858293</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>97</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1379430138.727178</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1238817304.753166</v>
+        <v>1470220332.802247</v>
       </c>
       <c r="F23" t="n">
-        <v>0.157360680893163</v>
+        <v>0.1301178799844022</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05131512300720292</v>
+        <v>0.05400261911825682</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>619408682.3208513</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3552611009.86799</v>
+        <v>3315512509.566814</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09751231807074491</v>
+        <v>0.1361468081062629</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02755204131710769</v>
+        <v>0.02495491328199903</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>103</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1776305503.021781</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1200691141.181401</v>
+        <v>1108076827.509384</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09810501635998729</v>
+        <v>0.1048776914604559</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02016257653540856</v>
+        <v>0.02171220805741036</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>600345588.4064381</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1387496479.781755</v>
+        <v>1183536907.883269</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1120834131007964</v>
+        <v>0.07923977716676445</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03813137283882863</v>
+        <v>0.0305689737702173</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>693748306.7941488</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3184726481.384659</v>
+        <v>4548105539.180582</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1458317931085059</v>
+        <v>0.1217775756241289</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01742326309369087</v>
+        <v>0.02495842264607961</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1592363291.336206</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3748100049.599792</v>
+        <v>3862744398.447239</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1243121856210367</v>
+        <v>0.09638553313860769</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03484045961017854</v>
+        <v>0.03125455887251032</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>115</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1874050100.958251</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5883387643.538732</v>
+        <v>5513130087.022028</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1390706622342958</v>
+        <v>0.150710468906649</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03467012771897506</v>
+        <v>0.03935615213654199</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>156</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2941693708.111318</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1926443151.066097</v>
+        <v>1481727758.598145</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1262776267701591</v>
+        <v>0.1279481172285016</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03350087819413248</v>
+        <v>0.04019679698597785</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>963221604.6243246</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1131024666.866489</v>
+        <v>1238900348.372164</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07292596878385396</v>
+        <v>0.0974190974527747</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05011475987198181</v>
+        <v>0.04543615247888015</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>565512301.1305276</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1438274682.421528</v>
+        <v>1162485895.294164</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08464111102597474</v>
+        <v>0.1116862782398169</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02519063674086332</v>
+        <v>0.02516519731804158</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>719137396.7978466</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1892938207.566439</v>
+        <v>2889314444.080245</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1720575677665105</v>
+        <v>0.1503851723356329</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05960697168423003</v>
+        <v>0.05532531959827824</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>107</v>
-      </c>
-      <c r="J33" t="n">
-        <v>946469193.7002538</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1469460365.162404</v>
+        <v>1275732714.083444</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09729468632370264</v>
+        <v>0.1089664112795899</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0186033932940365</v>
+        <v>0.0192407141924537</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>734730143.4600055</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1058825215.672062</v>
+        <v>866437409.8960778</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08488397564840315</v>
+        <v>0.0789464027042189</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03959982302770609</v>
+        <v>0.03532865030016407</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>529412613.5192649</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2159679180.546329</v>
+        <v>2771676586.204799</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1323080914354633</v>
+        <v>0.1164417272444803</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02320181635173677</v>
+        <v>0.0261999294642857</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>89</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1079839639.527276</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2628040361.28704</v>
+        <v>2377943992.113595</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09894106108925987</v>
+        <v>0.07292091535357027</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02903370125285266</v>
+        <v>0.0312996800119879</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>92</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1314020294.316404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1445397164.434869</v>
+        <v>1973678298.860603</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1184062843724482</v>
+        <v>0.08782874748496584</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02556449187445946</v>
+        <v>0.03156156358570339</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>722698639.2003464</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2048595177.077261</v>
+        <v>1616605386.156188</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1715047556582231</v>
+        <v>0.1884150204034569</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02091924298281081</v>
+        <v>0.0312587584973292</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1024297575.713348</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1671394956.198467</v>
+        <v>1300357056.822571</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1582943936544704</v>
+        <v>0.1545818459316358</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0479345724977364</v>
+        <v>0.05033338185618561</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>835697401.4038765</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2793262446.972647</v>
+        <v>2018376154.999673</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1231639312242091</v>
+        <v>0.1399615632639186</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03106579757609521</v>
+        <v>0.0398721966948183</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>89</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1396631220.033245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3961648174.289823</v>
+        <v>4333553311.297114</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08937062994186629</v>
+        <v>0.09518494368712482</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04243112809771724</v>
+        <v>0.04088296763953067</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>116</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1980824113.773118</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1960740275.715919</v>
+        <v>2218922951.931024</v>
       </c>
       <c r="F43" t="n">
-        <v>0.157029337406466</v>
+        <v>0.1389211618651221</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0191029449762409</v>
+        <v>0.01684502732694652</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>126</v>
-      </c>
-      <c r="J43" t="n">
-        <v>980370240.7582335</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2301750162.406042</v>
+        <v>1633537935.003125</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06313076177513324</v>
+        <v>0.1004557745497956</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03016433163053927</v>
+        <v>0.02817571884574193</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1150875247.760609</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2344187200.655627</v>
+        <v>2180628287.468826</v>
       </c>
       <c r="F45" t="n">
-        <v>0.130572765032717</v>
+        <v>0.1666154483848673</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04884429861100104</v>
+        <v>0.03799519420444074</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1172093625.870819</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3618099025.447231</v>
+        <v>5274908254.27183</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1178854512555833</v>
+        <v>0.1074373463394251</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04944115092623597</v>
+        <v>0.0605009766179952</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>126</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1809049460.387298</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3210420555.591992</v>
+        <v>3955957066.054896</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1573716281875824</v>
+        <v>0.1297921112981159</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04937616352584127</v>
+        <v>0.04476783197126348</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>95</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1605210232.207744</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4685714582.609162</v>
+        <v>3459813098.970997</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1057218611660886</v>
+        <v>0.07168444613284794</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03625167846015692</v>
+        <v>0.03315562743221927</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>117</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2342857285.807795</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1606854161.528597</v>
+        <v>1582269654.058257</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1888037981962711</v>
+        <v>0.1792873035085793</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0418365846475687</v>
+        <v>0.0374004124796565</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>803427096.1881539</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3637220591.244257</v>
+        <v>2991133259.161666</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1372735188584957</v>
+        <v>0.1103221953748015</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05293766901401911</v>
+        <v>0.03543093117959126</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>120</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1818610310.119861</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1338089019.619943</v>
+        <v>1286870350.731698</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1742957287978842</v>
+        <v>0.1898449580125483</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0444681615699879</v>
+        <v>0.04074965881095304</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>669044538.9904132</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4912543241.990409</v>
+        <v>3857811578.481628</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1085892511646142</v>
+        <v>0.1269265688314484</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05153272690711549</v>
+        <v>0.0405325473504954</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>145</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2456271623.776369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2780720408.542282</v>
+        <v>2724486182.996684</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1833177062459785</v>
+        <v>0.1327211064439587</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03196998408957857</v>
+        <v>0.02447533729469449</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>102</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1390360251.858976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3668039642.053</v>
+        <v>3041829491.520974</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1246470041320814</v>
+        <v>0.1617931725951357</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05155773269335327</v>
+        <v>0.03232719322274257</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>116</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1834019859.048205</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4455983508.178027</v>
+        <v>3787717663.013705</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1459214625736208</v>
+        <v>0.2241176102332048</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02558331627815661</v>
+        <v>0.02093227729966695</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2227991749.109935</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1427843829.721385</v>
+        <v>1335830028.396027</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1104333692273207</v>
+        <v>0.1377695099501224</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05622548569827918</v>
+        <v>0.04978622759552896</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>713921967.7909161</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3564934886.79639</v>
+        <v>3911981588.33205</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1563925691867955</v>
+        <v>0.1195617398722233</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02467676826511094</v>
+        <v>0.01929591522729375</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>112</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1782467495.245231</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1807354614.178869</v>
+        <v>1727934842.161156</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1506117033126782</v>
+        <v>0.1492115765358898</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03662353593716622</v>
+        <v>0.03661176327216443</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>903677310.1775115</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5156079221.368556</v>
+        <v>3622742131.386502</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1021835038074607</v>
+        <v>0.08706309554980807</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03201164474020627</v>
+        <v>0.04124996337131868</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>100</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2578039530.88517</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2359183707.80681</v>
+        <v>3341930161.391339</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1337933211538763</v>
+        <v>0.1639435882014055</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03308468383091174</v>
+        <v>0.03036113871478442</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>109</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1179591857.042278</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2576059127.42993</v>
+        <v>2119762906.532854</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1225364109155197</v>
+        <v>0.160719330577161</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03288995572955072</v>
+        <v>0.02461019717387688</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>122</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1288029584.170715</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1663905203.024644</v>
+        <v>1712388300.407104</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1326600825602731</v>
+        <v>0.175649427289618</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03495345360948731</v>
+        <v>0.03247361416609791</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>831952609.1656284</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4031834889.813916</v>
+        <v>5081311840.775566</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09720778290864888</v>
+        <v>0.07554685141811478</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04493899159293981</v>
+        <v>0.02903657351351813</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>103</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2015917505.90448</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4820274954.001413</v>
+        <v>4503961997.60277</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1537368159302331</v>
+        <v>0.1764641012640747</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02163613589847241</v>
+        <v>0.02629632096318626</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>110</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2410137570.568237</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5682791465.64867</v>
+        <v>5426501908.412911</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1582298254142471</v>
+        <v>0.1718297880559145</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02097977762006653</v>
+        <v>0.02733267561926074</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>126</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2841395650.997147</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4668011293.805707</v>
+        <v>3510956803.99704</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1557449803803656</v>
+        <v>0.1248999621803489</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04428436893567273</v>
+        <v>0.03564037683636127</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>103</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2334005656.321849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2998530223.628942</v>
+        <v>2765140751.282784</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06236121862744678</v>
+        <v>0.06469663750164764</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04047026732440326</v>
+        <v>0.03155863815654924</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>113</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1499265130.1793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4759343823.178733</v>
+        <v>5857214013.436288</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1190933033206852</v>
+        <v>0.1061765059063159</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05054775308345861</v>
+        <v>0.04309287119316167</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>114</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2379671953.413765</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1659872791.431519</v>
+        <v>2110477185.218673</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1651699568787894</v>
+        <v>0.1338606927416724</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04976698442854836</v>
+        <v>0.05562323760954787</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>829936356.680966</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3445818260.216362</v>
+        <v>3241097361.367154</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0892377372077589</v>
+        <v>0.08102046566960107</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04369709141161688</v>
+        <v>0.03094011166408448</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>101</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1722909136.194095</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3822791223.211399</v>
+        <v>3980105389.588973</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1632043138588627</v>
+        <v>0.1167914253047128</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02403361854078458</v>
+        <v>0.02982411348096779</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>128</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1911395629.472868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1497988857.848095</v>
+        <v>1810358419.615945</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07895352438043236</v>
+        <v>0.09429967892750329</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04204258408693591</v>
+        <v>0.03935558220725289</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>748994456.2383686</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2300606583.430144</v>
+        <v>2931019242.405435</v>
       </c>
       <c r="F73" t="n">
-        <v>0.077766890048104</v>
+        <v>0.09001102049966092</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04308145501614037</v>
+        <v>0.03262755001537506</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>134</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1150303351.752268</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3105962880.884574</v>
+        <v>3406456724.026402</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1560724128214515</v>
+        <v>0.1533488573274596</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03463480005240604</v>
+        <v>0.02865506290517209</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>120</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1552981496.702316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2098664012.78785</v>
+        <v>2469142431.369134</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1341582900706108</v>
+        <v>0.1061269722434821</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03248612632819921</v>
+        <v>0.02602700042907362</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1049331961.305896</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3824759850.291757</v>
+        <v>4386175043.637459</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08907614978874144</v>
+        <v>0.123455785796016</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02784572166428643</v>
+        <v>0.02417803371692927</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>80</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1912379902.548602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1948681565.915935</v>
+        <v>2019980579.056483</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1514230310411009</v>
+        <v>0.1777365575498428</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02148681952278125</v>
+        <v>0.02598761164548256</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>974340836.8767443</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2895563380.50743</v>
+        <v>4484793413.730121</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08346236307614434</v>
+        <v>0.1211657183697377</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04663155258949259</v>
+        <v>0.04409215879807016</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>123</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1447781735.029137</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1707804239.61223</v>
+        <v>1770808440.7016</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1185318588713838</v>
+        <v>0.1377165397315103</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04075554635422115</v>
+        <v>0.03320573458800503</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>853902190.3820381</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4042967350.151766</v>
+        <v>4589309313.447968</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1093325064607459</v>
+        <v>0.1099758389478721</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03227178159526797</v>
+        <v>0.02677863928541359</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>75</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2021483676.691308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5080473043.122487</v>
+        <v>4276479391.080219</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1269653098694926</v>
+        <v>0.1109530466152922</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03183983536847942</v>
+        <v>0.02421855913181262</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>79</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2540236524.894951</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5383069085.982284</v>
+        <v>4818660875.594483</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1715255692582854</v>
+        <v>0.1600261068028692</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02571127088556791</v>
+        <v>0.0189092433057396</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>123</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2691534505.570261</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2492839413.835346</v>
+        <v>1568962805.780575</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1139902117710864</v>
+        <v>0.1377862955529279</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04498069987862793</v>
+        <v>0.02804853763447721</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1246419753.577544</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2575786574.42621</v>
+        <v>1680655291.812337</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07708665427173821</v>
+        <v>0.1038573481812319</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04143808809483823</v>
+        <v>0.05224719891951465</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1287893207.893248</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3341051740.823752</v>
+        <v>2901277189.630847</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1845517999415874</v>
+        <v>0.1326690479285334</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03864602186942932</v>
+        <v>0.05358940293265016</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>133</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1670525968.249789</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1874834518.376598</v>
+        <v>2249025659.96382</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1058275096344896</v>
+        <v>0.1411257630013927</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02723944162447693</v>
+        <v>0.02004373410045011</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>45</v>
-      </c>
-      <c r="J86" t="n">
-        <v>937417269.4039997</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1339393443.490789</v>
+        <v>1316604784.723315</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1433113144675852</v>
+        <v>0.165338837070626</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04413267614719268</v>
+        <v>0.03596295535181292</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>669696813.068017</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2782703324.607481</v>
+        <v>2327424004.922332</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1638370659701759</v>
+        <v>0.1141973032689338</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03475769040304885</v>
+        <v>0.02705983878009407</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>140</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1391351671.276348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2365503147.924858</v>
+        <v>2509895299.5482</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1154376274440457</v>
+        <v>0.1575279507231834</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03048962617484344</v>
+        <v>0.02793402726504997</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>120</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1182751658.580119</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1375425806.285299</v>
+        <v>1644363064.517987</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09229579386533963</v>
+        <v>0.1171252441305539</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04217405676476429</v>
+        <v>0.03616548855888034</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>687712859.1125455</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2077142631.340856</v>
+        <v>1327949427.139967</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1705746923889496</v>
+        <v>0.1217660831375162</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05992248215995376</v>
+        <v>0.04278145737869375</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1038571277.685793</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1944283808.96261</v>
+        <v>2611507539.13555</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1008624187969716</v>
+        <v>0.1008625185642287</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03478833539446518</v>
+        <v>0.03296137824261094</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>95</v>
-      </c>
-      <c r="J92" t="n">
-        <v>972141846.5010694</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4871515508.373125</v>
+        <v>4106553764.094718</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1318766475762572</v>
+        <v>0.09271020890296357</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04891032149339256</v>
+        <v>0.04907806115925954</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>105</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2435757698.474127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2078766563.942811</v>
+        <v>1669314968.599083</v>
       </c>
       <c r="F94" t="n">
-        <v>0.108515796184374</v>
+        <v>0.1575625316669597</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04131788780175254</v>
+        <v>0.03758445803185079</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1039383290.569076</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3149960581.326862</v>
+        <v>2869142240.327466</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08908768994338524</v>
+        <v>0.09774408593331234</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03875672861658149</v>
+        <v>0.04049655467804552</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>89</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1574980279.489753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1723395446.462154</v>
+        <v>2291959967.089538</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1154480088260068</v>
+        <v>0.1194185074291118</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03591553490270597</v>
+        <v>0.03921562633004477</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>861697739.7407838</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5318750047.499057</v>
+        <v>3479547725.114827</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1613116173098519</v>
+        <v>0.1424348817827841</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02541742554515592</v>
+        <v>0.0244388128775807</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>114</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2659375186.194496</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2896168751.091793</v>
+        <v>2488755109.3074</v>
       </c>
       <c r="F98" t="n">
-        <v>0.083038576482123</v>
+        <v>0.08570850917462088</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03172597107498817</v>
+        <v>0.02453880503251713</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>97</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1448084353.213916</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2591045227.605338</v>
+        <v>2396076460.306321</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1189381249693914</v>
+        <v>0.1047365853861922</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02428681076136438</v>
+        <v>0.02319962306407643</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>111</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1295522570.119606</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4172827681.42245</v>
+        <v>3000729015.26854</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1212755161794785</v>
+        <v>0.1557769418076194</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02806423046669274</v>
+        <v>0.01852306683668649</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>110</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2086413925.190681</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2604541287.437625</v>
+        <v>3014324429.27648</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1551502110192391</v>
+        <v>0.1368772631004831</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04841827666699817</v>
+        <v>0.03580172376091868</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>143</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1302270680.509284</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_353.xlsx
+++ b/output/fit_clients/fit_round_353.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1851637562.168116</v>
+        <v>1641314408.707138</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09686068890065558</v>
+        <v>0.0700442746656009</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04295783932184869</v>
+        <v>0.03897986818609542</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2048421675.802031</v>
+        <v>1637913999.245253</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1314813485317472</v>
+        <v>0.1442394489132137</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03571123679636896</v>
+        <v>0.05055765742958585</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4182738079.664317</v>
+        <v>3635968316.686811</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1481630216144227</v>
+        <v>0.1605796562032562</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02679520618301701</v>
+        <v>0.02983245769434798</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3623375759.401629</v>
+        <v>3121837215.569355</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1076722330069527</v>
+        <v>0.08653574379458719</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03364944647182373</v>
+        <v>0.04959985928489203</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2640543597.520566</v>
+        <v>2752907987.373072</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1020188517157166</v>
+        <v>0.1261165063955594</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03493383073862136</v>
+        <v>0.04898509855100276</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,16 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2602478210.02785</v>
+        <v>2166229454.857629</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07230627359814983</v>
+        <v>0.07912583103378479</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0353377188520097</v>
+        <v>0.03123991514352283</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3096604859.280275</v>
+        <v>3110556385.01107</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2147804580275208</v>
+        <v>0.1919355042759861</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02726622547167771</v>
+        <v>0.02514624953349201</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1680244319.745471</v>
+        <v>2033211600.247153</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1888472965420817</v>
+        <v>0.1679037644144175</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0260441150746591</v>
+        <v>0.03342820788088562</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4349782057.936032</v>
+        <v>4671291165.828952</v>
       </c>
       <c r="F10" t="n">
-        <v>0.193882437826901</v>
+        <v>0.1959671390529906</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04202303642763074</v>
+        <v>0.03750844335710556</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4170114727.06917</v>
+        <v>3408652042.353286</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1525502257557423</v>
+        <v>0.1772763058435271</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03439625983290919</v>
+        <v>0.04172158608077607</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2833368014.105055</v>
+        <v>2557741208.621675</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1215470253893022</v>
+        <v>0.1601714455187278</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04432762502124858</v>
+        <v>0.05037681881748082</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4334593079.016148</v>
+        <v>4233572158.140297</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07247542357382455</v>
+        <v>0.06628563557922318</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02786129913470607</v>
+        <v>0.02922439321585111</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3506267082.288498</v>
+        <v>3874292877.980473</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1598779511811782</v>
+        <v>0.1575440080391282</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04367868921487671</v>
+        <v>0.04119864061129905</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1466897160.839591</v>
+        <v>1169217056.509217</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07665348788429271</v>
+        <v>0.1030068257058565</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03549611925142612</v>
+        <v>0.04198407602100598</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2544359150.678915</v>
+        <v>2108405841.202165</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09692071386289229</v>
+        <v>0.1143877775382329</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04825931034315335</v>
+        <v>0.0369891567210466</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4766650826.506126</v>
+        <v>4138365944.518309</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1328376790916692</v>
+        <v>0.1063057406977855</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04721440123625086</v>
+        <v>0.03969155788814806</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3788965730.993284</v>
+        <v>3249146549.758873</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1667000971691578</v>
+        <v>0.1144831031357797</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02669567423047939</v>
+        <v>0.03293022304498395</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1333756979.708139</v>
+        <v>1278145526.203079</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1750629992332308</v>
+        <v>0.1766461653357678</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02195418641228216</v>
+        <v>0.02387934540626281</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -990,16 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2150996215.245367</v>
+        <v>2528716743.31868</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1143131569402824</v>
+        <v>0.09813585428130671</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02291312294676747</v>
+        <v>0.02836114627615861</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1018,16 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1862725129.269168</v>
+        <v>2343403892.141557</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1012624310155355</v>
+        <v>0.08238257675527094</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03571032236632919</v>
+        <v>0.03115940873801419</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2520613959.241008</v>
+        <v>3365821300.516808</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08811376016887307</v>
+        <v>0.1209441034109812</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03678217008858293</v>
+        <v>0.0514284747216083</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1470220332.802247</v>
+        <v>1172386971.709676</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1301178799844022</v>
+        <v>0.1172365071617362</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05400261911825682</v>
+        <v>0.03861752221405882</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3315512509.566814</v>
+        <v>3420944487.948769</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1361468081062629</v>
+        <v>0.1324396630071273</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02495491328199903</v>
+        <v>0.03053452909015621</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1108076827.509384</v>
+        <v>1040915772.803897</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1048776914604559</v>
+        <v>0.121476251380082</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02171220805741036</v>
+        <v>0.02713992817453312</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1183536907.883269</v>
+        <v>1175293109.942179</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07923977716676445</v>
+        <v>0.1230819461402577</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0305689737702173</v>
+        <v>0.02758783513231361</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4548105539.180582</v>
+        <v>3809760733.085319</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1217775756241289</v>
+        <v>0.1113303808304863</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02495842264607961</v>
+        <v>0.02670860934641056</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3862744398.447239</v>
+        <v>3681291091.147036</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09638553313860769</v>
+        <v>0.1142704836149478</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03125455887251032</v>
+        <v>0.0403026915004391</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5513130087.022028</v>
+        <v>3637459393.178806</v>
       </c>
       <c r="F29" t="n">
-        <v>0.150710468906649</v>
+        <v>0.1166969894254127</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03935615213654199</v>
+        <v>0.04329788799699125</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1270,16 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1481727758.598145</v>
+        <v>2150929359.468457</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1279481172285016</v>
+        <v>0.1319308681976814</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04019679698597785</v>
+        <v>0.03153727098158343</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1238900348.372164</v>
+        <v>1453672443.579221</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0974190974527747</v>
+        <v>0.1078710839043536</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04543615247888015</v>
+        <v>0.0474023093115782</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1162485895.294164</v>
+        <v>1277061383.393641</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1116862782398169</v>
+        <v>0.1203176486225392</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02516519731804158</v>
+        <v>0.0264091396289964</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2889314444.080245</v>
+        <v>2568591447.478977</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1503851723356329</v>
+        <v>0.1486086572937974</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05532531959827824</v>
+        <v>0.03982949181372104</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1275732714.083444</v>
+        <v>1563053321.497615</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1089664112795899</v>
+        <v>0.1066751631541245</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0192407141924537</v>
+        <v>0.0200983377275989</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>866437409.8960778</v>
+        <v>1134362756.604653</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0789464027042189</v>
+        <v>0.08579958269303482</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03532865030016407</v>
+        <v>0.04130337135358999</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2771676586.204799</v>
+        <v>2182744098.974536</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1164417272444803</v>
+        <v>0.1283500038428733</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0261999294642857</v>
+        <v>0.02451594300956027</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2377943992.113595</v>
+        <v>2615376290.39879</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07292091535357027</v>
+        <v>0.07122467347954912</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0312996800119879</v>
+        <v>0.03671662693795367</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1973678298.860603</v>
+        <v>2014508955.41028</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08782874748496584</v>
+        <v>0.1003477040055844</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03156156358570339</v>
+        <v>0.0372657970658542</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1616605386.156188</v>
+        <v>1679156577.565816</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1884150204034569</v>
+        <v>0.1715775138259611</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0312587584973292</v>
+        <v>0.02593128114820991</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1300357056.822571</v>
+        <v>1147454581.770892</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1545818459316358</v>
+        <v>0.1503413978972743</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05033338185618561</v>
+        <v>0.0492856852240376</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2018376154.999673</v>
+        <v>1832636761.59667</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1399615632639186</v>
+        <v>0.1399610524703424</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0398721966948183</v>
+        <v>0.03709863627032269</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4333553311.297114</v>
+        <v>2981178874.159361</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09518494368712482</v>
+        <v>0.08632894044480523</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04088296763953067</v>
+        <v>0.03763815016765447</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2218922951.931024</v>
+        <v>2481400468.778473</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1389211618651221</v>
+        <v>0.1842402411725401</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01684502732694652</v>
+        <v>0.02037972358002245</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1633537935.003125</v>
+        <v>1833948998.633516</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1004557745497956</v>
+        <v>0.09888574587601957</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02817571884574193</v>
+        <v>0.03528927744744223</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2180628287.468826</v>
+        <v>2095512705.81182</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1666154483848673</v>
+        <v>0.1555027648020175</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03799519420444074</v>
+        <v>0.04699336430990925</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5274908254.27183</v>
+        <v>5100542032.073299</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1074373463394251</v>
+        <v>0.1618729073353237</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0605009766179952</v>
+        <v>0.04712078481561113</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3955957066.054896</v>
+        <v>4350666789.929926</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1297921112981159</v>
+        <v>0.1435431296316116</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04476783197126348</v>
+        <v>0.05339021083741584</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3459813098.970997</v>
+        <v>3321460079.832414</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07168444613284794</v>
+        <v>0.1082451699311062</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03315562743221927</v>
+        <v>0.02861949114008605</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1582269654.058257</v>
+        <v>1981811805.400415</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1792873035085793</v>
+        <v>0.1951741505671103</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0374004124796565</v>
+        <v>0.04014248602309299</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2991133259.161666</v>
+        <v>3325696517.449593</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1103221953748015</v>
+        <v>0.1371807091214878</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03543093117959126</v>
+        <v>0.04526803238300543</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1286870350.731698</v>
+        <v>1511885421.382816</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1898449580125483</v>
+        <v>0.184217300527434</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04074965881095304</v>
+        <v>0.04160502241139161</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3857811578.481628</v>
+        <v>4807755586.930371</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1269265688314484</v>
+        <v>0.08461951887848426</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0405325473504954</v>
+        <v>0.05233131523995028</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2724486182.996684</v>
+        <v>2690759995.852007</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1327211064439587</v>
+        <v>0.1255919420393098</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02447533729469449</v>
+        <v>0.0307118669996614</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,13 +1942,13 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3041829491.520974</v>
+        <v>4680819963.470025</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1617931725951357</v>
+        <v>0.1456776970845809</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03232719322274257</v>
+        <v>0.03233089652120575</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3787717663.013705</v>
+        <v>4518209738.303845</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2241176102332048</v>
+        <v>0.2133469369215266</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02093227729966695</v>
+        <v>0.02073709319054537</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1335830028.396027</v>
+        <v>1274309053.440968</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1377695099501224</v>
+        <v>0.1012243201435032</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04978622759552896</v>
+        <v>0.04898461700339889</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3911981588.33205</v>
+        <v>3414325562.637067</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1195617398722233</v>
+        <v>0.1602931355497873</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01929591522729375</v>
+        <v>0.02290140263847342</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1727934842.161156</v>
+        <v>1815538621.139755</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1492115765358898</v>
+        <v>0.1802775576309743</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03661176327216443</v>
+        <v>0.02899308376432401</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3622742131.386502</v>
+        <v>4291305162.690686</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08706309554980807</v>
+        <v>0.1147773170864291</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04124996337131868</v>
+        <v>0.03718230317480196</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3341930161.391339</v>
+        <v>3363712932.387182</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1639435882014055</v>
+        <v>0.1778583480064149</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03036113871478442</v>
+        <v>0.02093125966807088</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2119762906.532854</v>
+        <v>2494930360.065799</v>
       </c>
       <c r="F61" t="n">
-        <v>0.160719330577161</v>
+        <v>0.154759420081562</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02461019717387688</v>
+        <v>0.02649412714957696</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1712388300.407104</v>
+        <v>1714311516.793219</v>
       </c>
       <c r="F62" t="n">
-        <v>0.175649427289618</v>
+        <v>0.184142084596865</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03247361416609791</v>
+        <v>0.04284873547955088</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5081311840.775566</v>
+        <v>4455677754.446445</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07554685141811478</v>
+        <v>0.1047780799787902</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02903657351351813</v>
+        <v>0.02894519845140276</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4503961997.60277</v>
+        <v>3855731117.39919</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1764641012640747</v>
+        <v>0.1701989038011699</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02629632096318626</v>
+        <v>0.02969650617324563</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5426501908.412911</v>
+        <v>3686678006.586067</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1718297880559145</v>
+        <v>0.1076814317881899</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02733267561926074</v>
+        <v>0.02200385363386186</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3510956803.99704</v>
+        <v>5445675895.848059</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1248999621803489</v>
+        <v>0.1086780568223343</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03564037683636127</v>
+        <v>0.04044077038892917</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2765140751.282784</v>
+        <v>2584269351.534969</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06469663750164764</v>
+        <v>0.07075107550230915</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03155863815654924</v>
+        <v>0.03497160277000055</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5857214013.436288</v>
+        <v>4337548205.533518</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1061765059063159</v>
+        <v>0.1295297924680894</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04309287119316167</v>
+        <v>0.04414633383429332</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2110477185.218673</v>
+        <v>1686031498.17324</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1338606927416724</v>
+        <v>0.1454102778979991</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05562323760954787</v>
+        <v>0.05764482555952352</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3241097361.367154</v>
+        <v>2518362574.691245</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08102046566960107</v>
+        <v>0.1021346492779568</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03094011166408448</v>
+        <v>0.03388978108888897</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3980105389.588973</v>
+        <v>3477453115.993189</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1167914253047128</v>
+        <v>0.1319551812459315</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02982411348096779</v>
+        <v>0.03233947691951807</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1810358419.615945</v>
+        <v>2100837240.064174</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09429967892750329</v>
+        <v>0.08827967250870361</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03935558220725289</v>
+        <v>0.05079133331353335</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2931019242.405435</v>
+        <v>2794768651.483855</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09001102049966092</v>
+        <v>0.0686034747852618</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03262755001537506</v>
+        <v>0.03861429789736463</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3406456724.026402</v>
+        <v>3275282084.469529</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1533488573274596</v>
+        <v>0.1558188015295201</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02865506290517209</v>
+        <v>0.02143321746048516</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2469142431.369134</v>
+        <v>1703551801.086327</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1061269722434821</v>
+        <v>0.1521572627355102</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02602700042907362</v>
+        <v>0.03140039612712422</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4386175043.637459</v>
+        <v>4726409868.944463</v>
       </c>
       <c r="F76" t="n">
-        <v>0.123455785796016</v>
+        <v>0.08760005834004618</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02417803371692927</v>
+        <v>0.03283398610958121</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2019980579.056483</v>
+        <v>1468451248.926956</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1777365575498428</v>
+        <v>0.1157841944569907</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02598761164548256</v>
+        <v>0.02031676302636833</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4484793413.730121</v>
+        <v>3684619005.006451</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1211657183697377</v>
+        <v>0.12469863820685</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04409215879807016</v>
+        <v>0.04127268937127504</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1770808440.7016</v>
+        <v>1746522658.59341</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1377165397315103</v>
+        <v>0.1595342190941172</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03320573458800503</v>
+        <v>0.02802827114334911</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4589309313.447968</v>
+        <v>4461796000.495713</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1099758389478721</v>
+        <v>0.09019395063840696</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02677863928541359</v>
+        <v>0.03566668328828873</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4276479391.080219</v>
+        <v>4963079979.520645</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1109530466152922</v>
+        <v>0.09635512084871543</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02421855913181262</v>
+        <v>0.0201895284689473</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4818660875.594483</v>
+        <v>4681416458.290816</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1600261068028692</v>
+        <v>0.1934811436920098</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0189092433057396</v>
+        <v>0.01860888920563857</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1568962805.780575</v>
+        <v>1626570786.65729</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1377862955529279</v>
+        <v>0.1173924871210283</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02804853763447721</v>
+        <v>0.04515127796717115</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1680655291.812337</v>
+        <v>2217865684.67436</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1038573481812319</v>
+        <v>0.1079176143985471</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05224719891951465</v>
+        <v>0.05193796387604272</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,16 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2901277189.630847</v>
+        <v>3605740095.709909</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1326690479285334</v>
+        <v>0.1829286452744266</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05358940293265016</v>
+        <v>0.04299572987276426</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2249025659.96382</v>
+        <v>2736576877.375999</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1411257630013927</v>
+        <v>0.1378309189820601</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02004373410045011</v>
+        <v>0.0178816877054279</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1316604784.723315</v>
+        <v>1250375350.216016</v>
       </c>
       <c r="F87" t="n">
-        <v>0.165338837070626</v>
+        <v>0.1167370545648547</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03596295535181292</v>
+        <v>0.03879155194623725</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2327424004.922332</v>
+        <v>3223260972.644294</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1141973032689338</v>
+        <v>0.1698662298419851</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02705983878009407</v>
+        <v>0.03501035778745393</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2509895299.5482</v>
+        <v>2289783492.439565</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1575279507231834</v>
+        <v>0.1069871719681972</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02793402726504997</v>
+        <v>0.03745723278353214</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1644363064.517987</v>
+        <v>2126960495.969314</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1171252441305539</v>
+        <v>0.1133170833771182</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03616548855888034</v>
+        <v>0.05493236204022435</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1327949427.139967</v>
+        <v>1462163209.451339</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1217660831375162</v>
+        <v>0.1784532062640472</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04278145737869375</v>
+        <v>0.05485034950260105</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2611507539.13555</v>
+        <v>2318647403.912792</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1008625185642287</v>
+        <v>0.07148899016175771</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03296137824261094</v>
+        <v>0.04283762648768421</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4106553764.094718</v>
+        <v>4169038612.348322</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09271020890296357</v>
+        <v>0.09107549141890818</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04907806115925954</v>
+        <v>0.03805773978026709</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1669314968.599083</v>
+        <v>1720120581.316709</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1575625316669597</v>
+        <v>0.1549285982288647</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03758445803185079</v>
+        <v>0.02870748528844158</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2869142240.327466</v>
+        <v>2765152664.145125</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09774408593331234</v>
+        <v>0.1234702530403874</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04049655467804552</v>
+        <v>0.04651200865749525</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2291959967.089538</v>
+        <v>1576532386.912476</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1194185074291118</v>
+        <v>0.09326765804229958</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03921562633004477</v>
+        <v>0.04567786386866906</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3479547725.114827</v>
+        <v>4447239749.670711</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1424348817827841</v>
+        <v>0.1376727973309161</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0244388128775807</v>
+        <v>0.02194483132973853</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2488755109.3074</v>
+        <v>3285254039.137583</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08570850917462088</v>
+        <v>0.08073424893694658</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02453880503251713</v>
+        <v>0.03102425106683263</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2396076460.306321</v>
+        <v>2582536556.962289</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1047365853861922</v>
+        <v>0.09589422980946276</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02319962306407643</v>
+        <v>0.0318069177974263</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3000729015.26854</v>
+        <v>4251179522.323152</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1557769418076194</v>
+        <v>0.1200422433427722</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01852306683668649</v>
+        <v>0.01870735670229236</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3014324429.27648</v>
+        <v>2920759635.005095</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1368772631004831</v>
+        <v>0.1852109384322636</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03580172376091868</v>
+        <v>0.04677080079890989</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_353.xlsx
+++ b/output/fit_clients/fit_round_353.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1641314408.707138</v>
+        <v>1933419329.694887</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0700442746656009</v>
+        <v>0.1123438850675319</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03897986818609542</v>
+        <v>0.04402756205056655</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1637913999.245253</v>
+        <v>1822346910.792297</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1442394489132137</v>
+        <v>0.1600316871578164</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05055765742958585</v>
+        <v>0.04577745517825978</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3635968316.686811</v>
+        <v>3496120409.381477</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1605796562032562</v>
+        <v>0.1333281508281101</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02983245769434798</v>
+        <v>0.0283257859442588</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>182</v>
+      </c>
+      <c r="J4" t="n">
+        <v>353</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3121837215.569355</v>
+        <v>3529765703.225474</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08653574379458719</v>
+        <v>0.08504809554346966</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04959985928489203</v>
+        <v>0.03073939532369059</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>142</v>
+      </c>
+      <c r="J5" t="n">
+        <v>352</v>
+      </c>
+      <c r="K5" t="n">
+        <v>58.21932142848053</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2752907987.373072</v>
+        <v>1863807432.018096</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1261165063955594</v>
+        <v>0.1192282420561402</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04898509855100276</v>
+        <v>0.04473042749474982</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2166229454.857629</v>
+        <v>3108803943.920077</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07912583103378479</v>
+        <v>0.09803971951284154</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03123991514352283</v>
+        <v>0.04335545699563675</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3110556385.01107</v>
+        <v>3318462240.034266</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1919355042759861</v>
+        <v>0.1502723049811199</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02514624953349201</v>
+        <v>0.02308672171416</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>92</v>
+      </c>
+      <c r="J8" t="n">
+        <v>353</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2033211600.247153</v>
+        <v>1505978299.824007</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1679037644144175</v>
+        <v>0.1672165857174194</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03342820788088562</v>
+        <v>0.03433923880818458</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +777,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4671291165.828952</v>
+        <v>4337570895.528404</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1959671390529906</v>
+        <v>0.2102639718555259</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03750844335710556</v>
+        <v>0.03850086415987802</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>297</v>
+      </c>
+      <c r="J10" t="n">
+        <v>353</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3408652042.353286</v>
+        <v>3518852517.925303</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1772763058435271</v>
+        <v>0.1587439521196335</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04172158608077607</v>
+        <v>0.03338950723041634</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>145</v>
+      </c>
+      <c r="J11" t="n">
+        <v>353</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2557741208.621675</v>
+        <v>2206122398.585629</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1601714455187278</v>
+        <v>0.1436488542708147</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05037681881748082</v>
+        <v>0.03671881678187803</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +882,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4233572158.140297</v>
+        <v>3489828234.838279</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06628563557922318</v>
+        <v>0.06681230416135693</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02922439321585111</v>
+        <v>0.02413531827888159</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>182</v>
+      </c>
+      <c r="J13" t="n">
+        <v>353</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +917,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3874292877.980473</v>
+        <v>3041318390.58166</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1575440080391282</v>
+        <v>0.1201046874414346</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04119864061129905</v>
+        <v>0.03493096710357854</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>73</v>
+      </c>
+      <c r="J14" t="n">
+        <v>349</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +952,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1169217056.509217</v>
+        <v>1433632261.496243</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1030068257058565</v>
+        <v>0.07043019982872557</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04198407602100598</v>
+        <v>0.03324105020626572</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +993,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2108405841.202165</v>
+        <v>2496702725.945929</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1143877775382329</v>
+        <v>0.1049974046417148</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0369891567210466</v>
+        <v>0.05069169315632126</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1028,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4138365944.518309</v>
+        <v>4087380608.929894</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1063057406977855</v>
+        <v>0.1557856423570241</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03969155788814806</v>
+        <v>0.04031523251419686</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>166</v>
+      </c>
+      <c r="J17" t="n">
+        <v>353</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1063,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3249146549.758873</v>
+        <v>2690970447.844041</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1144831031357797</v>
+        <v>0.125999565177216</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03293022304498395</v>
+        <v>0.02527486565077556</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>87</v>
+      </c>
+      <c r="J18" t="n">
+        <v>350</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1092,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1278145526.203079</v>
+        <v>1010114139.298109</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1766461653357678</v>
+        <v>0.1802440987255027</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02387934540626281</v>
+        <v>0.02700570741774133</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1127,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2528716743.31868</v>
+        <v>1817435408.355054</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09813585428130671</v>
+        <v>0.1156871683705044</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02836114627615861</v>
+        <v>0.03181148781885463</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1162,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2343403892.141557</v>
+        <v>1918463151.618593</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08238257675527094</v>
+        <v>0.09497045328609542</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03115940873801419</v>
+        <v>0.03137151496099367</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1197,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3365821300.516808</v>
+        <v>2771986030.302086</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1209441034109812</v>
+        <v>0.1442736724295379</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0514284747216083</v>
+        <v>0.05510512913201865</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>96</v>
+      </c>
+      <c r="J22" t="n">
+        <v>351</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1238,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1172386971.709676</v>
+        <v>1329734137.073339</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1172365071617362</v>
+        <v>0.1626987911258955</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03861752221405882</v>
+        <v>0.05352382427556462</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1273,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3420944487.948769</v>
+        <v>3368564254.884622</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1324396630071273</v>
+        <v>0.09200951696249983</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03053452909015621</v>
+        <v>0.03355337395248417</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>105</v>
+      </c>
+      <c r="J24" t="n">
+        <v>353</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1302,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1040915772.803897</v>
+        <v>952634306.3680465</v>
       </c>
       <c r="F25" t="n">
-        <v>0.121476251380082</v>
+        <v>0.1154331188391448</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02713992817453312</v>
+        <v>0.02167788547059801</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1337,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1175293109.942179</v>
+        <v>1456371895.195287</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1230819461402577</v>
+        <v>0.1119100228831359</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02758783513231361</v>
+        <v>0.02763424654523157</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1372,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3809760733.085319</v>
+        <v>3176563380.614067</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1113303808304863</v>
+        <v>0.1322322690599848</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02670860934641056</v>
+        <v>0.02240987806978325</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>147</v>
+      </c>
+      <c r="J27" t="n">
+        <v>351</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1407,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3681291091.147036</v>
+        <v>3742462743.423201</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1142704836149478</v>
+        <v>0.09395901860391551</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0403026915004391</v>
+        <v>0.04159389535520786</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>81</v>
+      </c>
+      <c r="J28" t="n">
+        <v>353</v>
+      </c>
+      <c r="K28" t="n">
+        <v>66.35808082412298</v>
       </c>
     </row>
     <row r="29">
@@ -1236,23 +1444,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3637459393.178806</v>
+        <v>3642814130.731412</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1166969894254127</v>
+        <v>0.105153530304353</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04329788799699125</v>
+        <v>0.04171799465692353</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>314</v>
+      </c>
+      <c r="J29" t="n">
+        <v>353</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1270,17 +1485,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2150929359.468457</v>
+        <v>1997170492.770934</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1319308681976814</v>
+        <v>0.09765976518739075</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03153727098158343</v>
+        <v>0.03981318094112644</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1514,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1453672443.579221</v>
+        <v>1196671203.973478</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1078710839043536</v>
+        <v>0.08566584953068851</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0474023093115782</v>
+        <v>0.04364243778806055</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1549,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1277061383.393641</v>
+        <v>1457593687.22175</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1203176486225392</v>
+        <v>0.07607157378766459</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0264091396289964</v>
+        <v>0.03690097440240392</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1584,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2568591447.478977</v>
+        <v>2367269687.780208</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1486086572937974</v>
+        <v>0.2077190124686297</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03982949181372104</v>
+        <v>0.05245242433212213</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1619,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1563053321.497615</v>
+        <v>1420319065.673634</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1066751631541245</v>
+        <v>0.09731470082266473</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0200983377275989</v>
+        <v>0.01766009422679567</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1654,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1134362756.604653</v>
+        <v>1204109149.438457</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08579958269303482</v>
+        <v>0.0977612082590134</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04130337135358999</v>
+        <v>0.0321449078021914</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1689,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2182744098.974536</v>
+        <v>2890397409.081571</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1283500038428733</v>
+        <v>0.1520542196209005</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02451594300956027</v>
+        <v>0.02650302460908046</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1724,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2615376290.39879</v>
+        <v>2586252052.56217</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07122467347954912</v>
+        <v>0.08975225262017293</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03671662693795367</v>
+        <v>0.04144809219318082</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1765,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2014508955.41028</v>
+        <v>1990384736.71888</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1003477040055844</v>
+        <v>0.08486846794053904</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0372657970658542</v>
+        <v>0.03831134728217396</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1794,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1679156577.565816</v>
+        <v>2220317860.527581</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1715775138259611</v>
+        <v>0.1298869655501494</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02593128114820991</v>
+        <v>0.03031409090237035</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1829,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1147454581.770892</v>
+        <v>1274392537.502641</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1503413978972743</v>
+        <v>0.1486334158714284</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0492856852240376</v>
+        <v>0.05738060008541501</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1864,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1832636761.59667</v>
+        <v>2087857861.594971</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1399610524703424</v>
+        <v>0.1457293349137292</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03709863627032269</v>
+        <v>0.03630336046679453</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1899,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2981178874.159361</v>
+        <v>4342501859.762617</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08632894044480523</v>
+        <v>0.08771959666726861</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03763815016765447</v>
+        <v>0.04417245527323912</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>153</v>
+      </c>
+      <c r="J42" t="n">
+        <v>353</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1940,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2481400468.778473</v>
+        <v>1926227740.633093</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1842402411725401</v>
+        <v>0.1291419747428051</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02037972358002245</v>
+        <v>0.02419813716524187</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1969,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1833948998.633516</v>
+        <v>1543981921.285713</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09888574587601957</v>
+        <v>0.10294453218719</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03528927744744223</v>
+        <v>0.03102424556828764</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2004,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2095512705.81182</v>
+        <v>1530673315.714335</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1555027648020175</v>
+        <v>0.1281966184928478</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04699336430990925</v>
+        <v>0.04543335425993236</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2045,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5100542032.073299</v>
+        <v>4530582197.20896</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1618729073353237</v>
+        <v>0.1458087868511379</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04712078481561113</v>
+        <v>0.04676912190404623</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>212</v>
+      </c>
+      <c r="J46" t="n">
+        <v>352</v>
+      </c>
+      <c r="K46" t="n">
+        <v>63.54251744241446</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2076,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4350666789.929926</v>
+        <v>5156809517.378269</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1435431296316116</v>
+        <v>0.1440309421993559</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05339021083741584</v>
+        <v>0.03921892917303935</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>158</v>
+      </c>
+      <c r="J47" t="n">
+        <v>352</v>
+      </c>
+      <c r="K47" t="n">
+        <v>56.45114935618616</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +2119,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3321460079.832414</v>
+        <v>4638887980.067779</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1082451699311062</v>
+        <v>0.08092402646200483</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02861949114008605</v>
+        <v>0.03080850580653927</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>177</v>
+      </c>
+      <c r="J48" t="n">
+        <v>353</v>
+      </c>
+      <c r="K48" t="n">
+        <v>65.84380810695968</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2150,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1981811805.400415</v>
+        <v>1983057027.791066</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1951741505671103</v>
+        <v>0.1844562662321614</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04014248602309299</v>
+        <v>0.03694336162527209</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2185,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3325696517.449593</v>
+        <v>3997292454.212289</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1371807091214878</v>
+        <v>0.1277448395736531</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04526803238300543</v>
+        <v>0.04870705943039032</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>116</v>
+      </c>
+      <c r="J50" t="n">
+        <v>353</v>
+      </c>
+      <c r="K50" t="n">
+        <v>68.30010425468907</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2222,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1511885421.382816</v>
+        <v>948762731.5064856</v>
       </c>
       <c r="F51" t="n">
-        <v>0.184217300527434</v>
+        <v>0.129639308129598</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04160502241139161</v>
+        <v>0.04026931017393447</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2257,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4807755586.930371</v>
+        <v>3218794073.099124</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08461951887848426</v>
+        <v>0.09830889675281849</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05233131523995028</v>
+        <v>0.05474491900149576</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>210</v>
+      </c>
+      <c r="J52" t="n">
+        <v>353</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2292,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2690759995.852007</v>
+        <v>2470925717.042858</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1255919420393098</v>
+        <v>0.1915164910794463</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0307118669996614</v>
+        <v>0.02834983769482856</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>51</v>
+      </c>
+      <c r="J53" t="n">
+        <v>345</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2327,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4680819963.470025</v>
+        <v>4529376797.507807</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1456776970845809</v>
+        <v>0.163456904785578</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03233089652120575</v>
+        <v>0.04479871144548141</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>186</v>
+      </c>
+      <c r="J54" t="n">
+        <v>352</v>
+      </c>
+      <c r="K54" t="n">
+        <v>65.05878572377515</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +2370,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4518209738.303845</v>
+        <v>3208195285.943889</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2133469369215266</v>
+        <v>0.1550342386213785</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02073709319054537</v>
+        <v>0.02116322358975912</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>169</v>
+      </c>
+      <c r="J55" t="n">
+        <v>352</v>
+      </c>
+      <c r="K55" t="n">
+        <v>40.64060056603</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2401,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1274309053.440968</v>
+        <v>1723494801.851477</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1012243201435032</v>
+        <v>0.1262931035203095</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04898461700339889</v>
+        <v>0.04525055926109848</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2442,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3414325562.637067</v>
+        <v>4110056771.602227</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1602931355497873</v>
+        <v>0.1246608712037933</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02290140263847342</v>
+        <v>0.02603673151329595</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>146</v>
+      </c>
+      <c r="J57" t="n">
+        <v>353</v>
+      </c>
+      <c r="K57" t="n">
+        <v>65.48563716793751</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1815538621.139755</v>
+        <v>1788906071.965054</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1802775576309743</v>
+        <v>0.1529530012450562</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02899308376432401</v>
+        <v>0.03322766617065137</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2508,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4291305162.690686</v>
+        <v>3910093679.203927</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1147773170864291</v>
+        <v>0.1058314206030776</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03718230317480196</v>
+        <v>0.03842476490022375</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>170</v>
+      </c>
+      <c r="J59" t="n">
+        <v>353</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2543,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3363712932.387182</v>
+        <v>2705725160.54675</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1778583480064149</v>
+        <v>0.1982336259091026</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02093125966807088</v>
+        <v>0.03267964867954854</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>62</v>
+      </c>
+      <c r="J60" t="n">
+        <v>349</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2578,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2494930360.065799</v>
+        <v>3061808872.374628</v>
       </c>
       <c r="F61" t="n">
-        <v>0.154759420081562</v>
+        <v>0.1264149757038347</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02649412714957696</v>
+        <v>0.02723435055434402</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>314</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2619,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1714311516.793219</v>
+        <v>1713397956.730283</v>
       </c>
       <c r="F62" t="n">
-        <v>0.184142084596865</v>
+        <v>0.1796140090647548</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04284873547955088</v>
+        <v>0.04719018419557622</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2648,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4455677754.446445</v>
+        <v>5125473696.956658</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1047780799787902</v>
+        <v>0.1037817742031517</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02894519845140276</v>
+        <v>0.03595131643618667</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>173</v>
+      </c>
+      <c r="J63" t="n">
+        <v>352</v>
+      </c>
+      <c r="K63" t="n">
+        <v>62.06395111230168</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2685,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3855731117.39919</v>
+        <v>3589547339.510197</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1701989038011699</v>
+        <v>0.1342885048418325</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02969650617324563</v>
+        <v>0.03428689173295467</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>174</v>
+      </c>
+      <c r="J64" t="n">
+        <v>353</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2720,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3686678006.586067</v>
+        <v>3864692539.48108</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1076814317881899</v>
+        <v>0.1525465189911956</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02200385363386186</v>
+        <v>0.03116449274720638</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>271</v>
+      </c>
+      <c r="J65" t="n">
+        <v>352</v>
+      </c>
+      <c r="K65" t="n">
+        <v>55.19001945086844</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2757,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5445675895.848059</v>
+        <v>5401924530.815313</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1086780568223343</v>
+        <v>0.143475429875869</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04044077038892917</v>
+        <v>0.03152799038888252</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>174</v>
+      </c>
+      <c r="J66" t="n">
+        <v>353</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2798,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2584269351.534969</v>
+        <v>2451469764.463474</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07075107550230915</v>
+        <v>0.09007583637928689</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03497160277000055</v>
+        <v>0.03514539066168151</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2827,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4337548205.533518</v>
+        <v>5374754112.481606</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1295297924680894</v>
+        <v>0.1551238786631842</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04414633383429332</v>
+        <v>0.03494342070303682</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>192</v>
+      </c>
+      <c r="J68" t="n">
+        <v>352</v>
+      </c>
+      <c r="K68" t="n">
+        <v>62.21932336203549</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2864,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1686031498.17324</v>
+        <v>2384337210.726735</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1454102778979991</v>
+        <v>0.1370733046743848</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05764482555952352</v>
+        <v>0.05128847511228108</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2899,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2518362574.691245</v>
+        <v>2511935464.440844</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1021346492779568</v>
+        <v>0.0947156144145781</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03388978108888897</v>
+        <v>0.02996365311835783</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>51</v>
+      </c>
+      <c r="J70" t="n">
+        <v>350</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2934,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3477453115.993189</v>
+        <v>3952552564.142793</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1319551812459315</v>
+        <v>0.1180900449979568</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03233947691951807</v>
+        <v>0.0300498902703633</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>257</v>
+      </c>
+      <c r="J71" t="n">
+        <v>353</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2969,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2100837240.064174</v>
+        <v>2181617124.445339</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08827967250870361</v>
+        <v>0.09601211580044193</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05079133331353335</v>
+        <v>0.03604846176637373</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3004,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2794768651.483855</v>
+        <v>2422529073.49191</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0686034747852618</v>
+        <v>0.07969025482286467</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03861429789736463</v>
+        <v>0.04554076335159253</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>25</v>
+      </c>
+      <c r="J73" t="n">
+        <v>346</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3039,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3275282084.469529</v>
+        <v>3852645786.405963</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1558188015295201</v>
+        <v>0.1851969875302913</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02143321746048516</v>
+        <v>0.02813831565793548</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>96</v>
+      </c>
+      <c r="J74" t="n">
+        <v>353</v>
+      </c>
+      <c r="K74" t="n">
+        <v>69.92599122883385</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3076,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1703551801.086327</v>
+        <v>2316714467.435431</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1521572627355102</v>
+        <v>0.1661536274234005</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03140039612712422</v>
+        <v>0.03113338374541809</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3117,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4726409868.944463</v>
+        <v>5173689156.896317</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08760005834004618</v>
+        <v>0.1066817738351678</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03283398610958121</v>
+        <v>0.02799619823299123</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>167</v>
+      </c>
+      <c r="J76" t="n">
+        <v>352</v>
+      </c>
+      <c r="K76" t="n">
+        <v>61.16895524385917</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1468451248.926956</v>
+        <v>2305495786.602472</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1157841944569907</v>
+        <v>0.1422110071565652</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02031676302636833</v>
+        <v>0.02665905403703377</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3189,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3684619005.006451</v>
+        <v>4082727225.225103</v>
       </c>
       <c r="F78" t="n">
-        <v>0.12469863820685</v>
+        <v>0.116764262085457</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04127268937127504</v>
+        <v>0.04489293792963043</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>176</v>
+      </c>
+      <c r="J78" t="n">
+        <v>352</v>
+      </c>
+      <c r="K78" t="n">
+        <v>61.59167516481142</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1746522658.59341</v>
+        <v>1912173354.966218</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1595342190941172</v>
+        <v>0.1395549619901858</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02802827114334911</v>
+        <v>0.03861598283105133</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3255,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4461796000.495713</v>
+        <v>5454641368.72657</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09019395063840696</v>
+        <v>0.0790756669318894</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03566668328828873</v>
+        <v>0.02404225286549989</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>172</v>
+      </c>
+      <c r="J80" t="n">
+        <v>353</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3290,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4963079979.520645</v>
+        <v>4762213749.858823</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09635512084871543</v>
+        <v>0.09780230573602619</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0201895284689473</v>
+        <v>0.02462706096416496</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>163</v>
+      </c>
+      <c r="J81" t="n">
+        <v>352</v>
+      </c>
+      <c r="K81" t="n">
+        <v>59.5773017445025</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4681416458.290816</v>
+        <v>5433128443.491116</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1934811436920098</v>
+        <v>0.1618152764961631</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01860888920563857</v>
+        <v>0.02043041613630138</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>250</v>
+      </c>
+      <c r="J82" t="n">
+        <v>352</v>
+      </c>
+      <c r="K82" t="n">
+        <v>62.39819440498248</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1626570786.65729</v>
+        <v>2094332935.507349</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1173924871210283</v>
+        <v>0.1243972256003428</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04515127796717115</v>
+        <v>0.03103628503917055</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2217865684.67436</v>
+        <v>1828650633.864555</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1079176143985471</v>
+        <v>0.08470368144734826</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05193796387604272</v>
+        <v>0.04888063797485112</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3605740095.709909</v>
+        <v>2840324691.542192</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1829286452744266</v>
+        <v>0.1233722138419546</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04299572987276426</v>
+        <v>0.05650254539255271</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>46</v>
+      </c>
+      <c r="J85" t="n">
+        <v>343</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3475,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2736576877.375999</v>
+        <v>2717753027.776386</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1378309189820601</v>
+        <v>0.1563092707683791</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0178816877054279</v>
+        <v>0.02298135307003375</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1250375350.216016</v>
+        <v>1367579963.847319</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1167370545648547</v>
+        <v>0.1659104090201758</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03879155194623725</v>
+        <v>0.03419844099960048</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3223260972.644294</v>
+        <v>2687800706.849052</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1698662298419851</v>
+        <v>0.1734893183541277</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03501035778745393</v>
+        <v>0.03902338461919146</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>46</v>
+      </c>
+      <c r="J88" t="n">
+        <v>331</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2289783492.439565</v>
+        <v>2490979678.58278</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1069871719681972</v>
+        <v>0.1136112709446486</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03745723278353214</v>
+        <v>0.03375168725202588</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2126960495.969314</v>
+        <v>1427426031.8571</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1133170833771182</v>
+        <v>0.104417614461492</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05493236204022435</v>
+        <v>0.05071856564361884</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1462163209.451339</v>
+        <v>1277592768.175992</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1784532062640472</v>
+        <v>0.1848731066960881</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05485034950260105</v>
+        <v>0.04255326525446741</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2318647403.912792</v>
+        <v>2079493283.013871</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07148899016175771</v>
+        <v>0.07535538926533658</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04283762648768421</v>
+        <v>0.03459941031284734</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4169038612.348322</v>
+        <v>5020473231.267717</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09107549141890818</v>
+        <v>0.1314925124607829</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03805773978026709</v>
+        <v>0.0475028064059117</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>164</v>
+      </c>
+      <c r="J93" t="n">
+        <v>352</v>
+      </c>
+      <c r="K93" t="n">
+        <v>65.15495929656009</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1720120581.316709</v>
+        <v>1835159796.445789</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1549285982288647</v>
+        <v>0.1654750231677866</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02870748528844158</v>
+        <v>0.03901137583626515</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2765152664.145125</v>
+        <v>2891400898.45912</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1234702530403874</v>
+        <v>0.1069522685297029</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04651200865749525</v>
+        <v>0.04450486433095237</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1576532386.912476</v>
+        <v>1784440979.306238</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09326765804229958</v>
+        <v>0.1364379850696588</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04567786386866906</v>
+        <v>0.03299008899952864</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4447239749.670711</v>
+        <v>3379093203.301225</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1376727973309161</v>
+        <v>0.1105739174198986</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02194483132973853</v>
+        <v>0.01990146236015198</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>182</v>
+      </c>
+      <c r="J97" t="n">
+        <v>352</v>
+      </c>
+      <c r="K97" t="n">
+        <v>43.83844656518045</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3285254039.137583</v>
+        <v>2886504275.971458</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08073424893694658</v>
+        <v>0.08749339843255952</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03102425106683263</v>
+        <v>0.02468402979647538</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>88</v>
+      </c>
+      <c r="J98" t="n">
+        <v>350</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2582536556.962289</v>
+        <v>2638147314.638868</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09589422980946276</v>
+        <v>0.1152134842223481</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0318069177974263</v>
+        <v>0.02350441017789457</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>7</v>
+      </c>
+      <c r="J99" t="n">
+        <v>348</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4251179522.323152</v>
+        <v>3018361981.445379</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1200422433427722</v>
+        <v>0.1475844182854984</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01870735670229236</v>
+        <v>0.0190761570827432</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>160</v>
+      </c>
+      <c r="J100" t="n">
+        <v>352</v>
+      </c>
+      <c r="K100" t="n">
+        <v>33.94436232793961</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2920759635.005095</v>
+        <v>2929095001.90589</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1852109384322636</v>
+        <v>0.1852934270654336</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04677080079890989</v>
+        <v>0.05678245254046162</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>32</v>
+      </c>
+      <c r="J101" t="n">
+        <v>341</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
